--- a/collezione/Collezione DC.xlsx
+++ b/collezione/Collezione DC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\collezione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111C7985-DD41-4D64-AB7E-F04C6176F35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315357B3-892A-43EC-80E0-A4932465D91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="740" windowWidth="36370" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1470" windowWidth="36370" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volumi " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t>Batman: War on Crime</t>
   </si>
@@ -91,13 +91,145 @@
   </si>
   <si>
     <t>90pp</t>
+  </si>
+  <si>
+    <t>All Star Superman #1 a #1</t>
+  </si>
+  <si>
+    <t>Grant Morrison</t>
+  </si>
+  <si>
+    <t>Frank Quitely</t>
+  </si>
+  <si>
+    <t>22 * 12 pp</t>
+  </si>
+  <si>
+    <t>Leggende DC #3 - #4</t>
+  </si>
+  <si>
+    <t>Panini Comics</t>
+  </si>
+  <si>
+    <t>Flashpoint vol.2 #1 a #5</t>
+  </si>
+  <si>
+    <t>Geoff Johns</t>
+  </si>
+  <si>
+    <t>Andy Kubert</t>
+  </si>
+  <si>
+    <t>Sandra Hope</t>
+  </si>
+  <si>
+    <t>22 * 5 pp</t>
+  </si>
+  <si>
+    <t>Leggende DC #5</t>
+  </si>
+  <si>
+    <t>Batman: The Dark Knight Returns</t>
+  </si>
+  <si>
+    <t>Frank Miller</t>
+  </si>
+  <si>
+    <t>46 *4 pp</t>
+  </si>
+  <si>
+    <t>Leggende DC #6</t>
+  </si>
+  <si>
+    <t>Klaus Janson</t>
+  </si>
+  <si>
+    <t>Crisis on Infinite Earths #1 a #12</t>
+  </si>
+  <si>
+    <t>Marv Wolfman</t>
+  </si>
+  <si>
+    <t>George Perez</t>
+  </si>
+  <si>
+    <t>Dick Giordano</t>
+  </si>
+  <si>
+    <t>Leggende DC #10, #11</t>
+  </si>
+  <si>
+    <t>The Flash: Rebirth</t>
+  </si>
+  <si>
+    <t>Ethan Van Sciver</t>
+  </si>
+  <si>
+    <t>22 * 6</t>
+  </si>
+  <si>
+    <t>Leggende DC #12</t>
+  </si>
+  <si>
+    <t>J.G.Jones</t>
+  </si>
+  <si>
+    <t>Crisi finale (7 numeri)</t>
+  </si>
+  <si>
+    <t>Leggende DC #13</t>
+  </si>
+  <si>
+    <t>Final Crisis (Superman Beyond) (2 numeri)</t>
+  </si>
+  <si>
+    <t>Doug Mahnke</t>
+  </si>
+  <si>
+    <t>Vari</t>
+  </si>
+  <si>
+    <t>Final Crisis: Submit (1 numero)</t>
+  </si>
+  <si>
+    <t>Matthew Clarke</t>
+  </si>
+  <si>
+    <t>Leggende DC #14</t>
+  </si>
+  <si>
+    <t>Leggende DC #13, #14</t>
+  </si>
+  <si>
+    <t>Superman Secret Origin</t>
+  </si>
+  <si>
+    <t>Gary Frank</t>
+  </si>
+  <si>
+    <t>Jon Sibal</t>
+  </si>
+  <si>
+    <t>Leggende DC #15</t>
+  </si>
+  <si>
+    <t>Dark Nights: Metal (6 Numeri)</t>
+  </si>
+  <si>
+    <t>Scott Snyder</t>
+  </si>
+  <si>
+    <t>Greg Capullo</t>
+  </si>
+  <si>
+    <t>Leggende DC #16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +266,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF403F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF787877"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -167,6 +336,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -447,18 +625,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="72.6328125" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
     <col min="3" max="3" width="25.54296875" customWidth="1"/>
     <col min="4" max="4" width="28.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="41.08984375" customWidth="1"/>
     <col min="7" max="7" width="23.6328125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
@@ -493,134 +672,105 @@
     </row>
     <row r="6" spans="1:8" ht="46">
       <c r="A6" s="4">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>35186</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="15.5">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="10">
+        <v>31138</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="46">
       <c r="A9" s="4">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2">
-        <v>36465</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8">
+        <v>31472</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="46">
+      <c r="A13" s="4">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>35186</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>36465</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="46">
-      <c r="A12" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2">
-        <v>36831</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="46">
       <c r="A16" s="4">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>37196</v>
+        <v>36465</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>1</v>
@@ -635,72 +785,389 @@
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="46">
-      <c r="A20" s="4">
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>36465</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="46">
+      <c r="A19" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>36831</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="46">
+      <c r="A23" s="4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>37196</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="46">
+      <c r="A27" s="4">
         <v>2002</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A21" s="5" t="s">
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B28" s="2">
         <v>37561</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="46">
-      <c r="A24" s="4">
+    <row r="31" spans="1:8" ht="46">
+      <c r="A31" s="4">
         <v>2003</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A25" s="5" t="s">
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B32" s="2">
         <v>37926</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="46">
+      <c r="A35" s="4">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="46">
+      <c r="A39" s="4">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="46">
+      <c r="A42" s="4">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="8">
+        <v>38718</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="46">
+      <c r="A46" s="4">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A47" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2">
+        <v>39630</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A48" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="2">
+        <v>39722</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="2">
+        <v>39783</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" ht="46">
+      <c r="A51" s="4">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="8">
+        <v>39965</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="8">
+        <v>40118</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="46">
+      <c r="A56" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="8">
+        <v>40725</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="46">
+      <c r="A62" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8">
+        <v>43009</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/collezione/Collezione DC.xlsx
+++ b/collezione/Collezione DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\collezione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315357B3-892A-43EC-80E0-A4932465D91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4F4988-EB1C-478D-9919-F0A7440DB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1470" windowWidth="36370" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4070" yWindow="2120" windowWidth="36370" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volumi " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>Batman: War on Crime</t>
   </si>
@@ -223,6 +223,27 @@
   </si>
   <si>
     <t>Leggende DC #16</t>
+  </si>
+  <si>
+    <t>Green Lantern Rebirth: da #1 a #6</t>
+  </si>
+  <si>
+    <t>Leggende DC #22</t>
+  </si>
+  <si>
+    <t>Identity Crisis: da #1 a #7</t>
+  </si>
+  <si>
+    <t>Brad Meltzer</t>
+  </si>
+  <si>
+    <t>Rags Morales</t>
+  </si>
+  <si>
+    <t>Michael Bair</t>
+  </si>
+  <si>
+    <t>Leggende DC #24 #25</t>
   </si>
 </sst>
 </file>
@@ -627,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -946,8 +967,54 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="46">
-      <c r="A39" s="4">
+    <row r="36" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="8">
+        <v>38200</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="8">
+        <v>38322</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="46">
+      <c r="A40" s="4">
         <v>2005</v>
       </c>
     </row>

--- a/collezione/Collezione DC.xlsx
+++ b/collezione/Collezione DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\collezione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4F4988-EB1C-478D-9919-F0A7440DB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E0767C-4DB5-4F46-8574-66B3FEEF3797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4070" yWindow="2120" windowWidth="36370" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="250" yWindow="2800" windowWidth="38580" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volumi " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
   <si>
     <t>Batman: War on Crime</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Mark Waid</t>
   </si>
   <si>
-    <t>DC Comics Story #1</t>
-  </si>
-  <si>
     <t>Rw Lion</t>
   </si>
   <si>
@@ -244,6 +241,99 @@
   </si>
   <si>
     <t>Leggende DC #24 #25</t>
+  </si>
+  <si>
+    <t>Batman: the long Halloween</t>
+  </si>
+  <si>
+    <t>Jeph Loeb</t>
+  </si>
+  <si>
+    <t>Tim Sale</t>
+  </si>
+  <si>
+    <t>Panini</t>
+  </si>
+  <si>
+    <t>Leggende DC #31 #32</t>
+  </si>
+  <si>
+    <t>Green Lantern: Secret Files and Origins</t>
+  </si>
+  <si>
+    <t>Darwyn Cooke</t>
+  </si>
+  <si>
+    <t>Leggende DC #36</t>
+  </si>
+  <si>
+    <t>Batman Rebirth #1</t>
+  </si>
+  <si>
+    <t>Tom King / Scott Snyder</t>
+  </si>
+  <si>
+    <t>Mikel Janin</t>
+  </si>
+  <si>
+    <t>32pp</t>
+  </si>
+  <si>
+    <t>Leggende DC #37</t>
+  </si>
+  <si>
+    <t>Superman: Secret Identity</t>
+  </si>
+  <si>
+    <t>Kurt Busiek</t>
+  </si>
+  <si>
+    <t>Stuart Immonen</t>
+  </si>
+  <si>
+    <t>Leggende DC #39</t>
+  </si>
+  <si>
+    <t>Superman: Red Son (3 numeri)</t>
+  </si>
+  <si>
+    <t>Mark Millar</t>
+  </si>
+  <si>
+    <t>Dave Johnson</t>
+  </si>
+  <si>
+    <t>Andrew Robinson</t>
+  </si>
+  <si>
+    <t>Leggende DC #40</t>
+  </si>
+  <si>
+    <t>Dceased #6 nume3ri</t>
+  </si>
+  <si>
+    <t>Tom Taylor</t>
+  </si>
+  <si>
+    <t>Tveror Hairsine</t>
+  </si>
+  <si>
+    <t>Leggende DC #51</t>
+  </si>
+  <si>
+    <t>DC Comics Story #1 Leggende DC #52, #53</t>
+  </si>
+  <si>
+    <t>Dark Knight III: The Master Race</t>
+  </si>
+  <si>
+    <t>Frank Miller / Brian Azzarello</t>
+  </si>
+  <si>
+    <t>Andy Kubert / Frank Miller</t>
+  </si>
+  <si>
+    <t>Leggende DC #59, #60</t>
   </si>
 </sst>
 </file>
@@ -646,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H63"/>
+  <dimension ref="A2:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -659,7 +749,7 @@
     <col min="3" max="3" width="25.54296875" customWidth="1"/>
     <col min="4" max="4" width="28.453125" customWidth="1"/>
     <col min="5" max="5" width="41.08984375" customWidth="1"/>
-    <col min="7" max="7" width="23.6328125" customWidth="1"/>
+    <col min="7" max="7" width="51.08984375" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -670,25 +760,25 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="15.5">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>28491</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="46">
@@ -698,25 +788,25 @@
     </row>
     <row r="7" spans="1:8" s="11" customFormat="1" ht="15.5">
       <c r="A7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="10">
         <v>31138</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="46">
@@ -726,28 +816,28 @@
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="15.5">
       <c r="A10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8">
         <v>31472</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="46">
@@ -775,46 +865,43 @@
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="46">
-      <c r="A16" s="4">
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2">
+        <v>35339</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="46">
+      <c r="A17" s="4">
         <v>1999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>36465</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" ht="15.5">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>36465</v>
@@ -832,409 +919,583 @@
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>36465</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="46">
-      <c r="A19" s="4">
+      <c r="H19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="46">
+      <c r="A20" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>36831</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="46">
-      <c r="A23" s="4">
+      <c r="H21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="46">
+      <c r="A24" s="4">
         <v>2001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>37196</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="46">
-      <c r="A27" s="4">
+      <c r="H25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="46">
+      <c r="A28" s="4">
         <v>2002</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>37561</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="2">
-        <v>37561</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="G29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="46">
+      <c r="A32" s="4">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="2">
+        <v>37834</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="2">
+        <v>37926</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="46">
-      <c r="A31" s="4">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A32" s="5" t="s">
+      <c r="F34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="2">
-        <v>37926</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="46">
-      <c r="A35" s="4">
+      <c r="G34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="46">
+      <c r="A36" s="4">
         <v>2004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="7" customFormat="1" ht="15.5">
-      <c r="A36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="8">
-        <v>38200</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="7" customFormat="1" ht="15.5">
       <c r="A37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="8">
+        <v>38200</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="8">
+        <v>38231</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="8">
+        <v>38322</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="8">
-        <v>38322</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="46">
-      <c r="A40" s="4">
-        <v>2005</v>
+      <c r="H39" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="46">
       <c r="A42" s="4">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="7" customFormat="1">
+      <c r="A43" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="8">
+        <v>38504</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="46">
+      <c r="A45" s="4">
         <v>2006</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="7" customFormat="1" ht="15.5">
-      <c r="A43" s="3" t="s">
+    <row r="46" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="8">
+        <v>38718</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="8">
-        <v>38718</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="H46" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="46">
+      <c r="A49" s="4">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A50" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>39630</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>39722</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="3" customFormat="1" ht="15.5">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2">
+        <v>39783</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" ht="46">
+      <c r="A54" s="4">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="8">
+        <v>39965</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="8">
+        <v>40118</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="46">
+      <c r="A59" s="4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A60" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="46">
-      <c r="A46" s="4">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A47" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="2">
-        <v>39630</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A48" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="2">
-        <v>39722</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="B60" s="8">
+        <v>40725</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="46">
+      <c r="A64" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="8">
+        <v>42370</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A66" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="8">
+        <v>42583</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="46">
+      <c r="A68" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A69" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="8">
+        <v>43009</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" ht="15.5">
-      <c r="A49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="2">
-        <v>39783</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="7" customFormat="1" ht="15.5">
-      <c r="A50" s="3"/>
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" ht="46">
-      <c r="A51" s="4">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="7" customFormat="1" ht="15.5">
-      <c r="A52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="8">
-        <v>39965</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="7" customFormat="1" ht="15.5">
-      <c r="A53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="8">
-        <v>40118</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="46">
-      <c r="A56" s="4">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="7" customFormat="1" ht="15.5">
-      <c r="A57" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="8">
-        <v>40725</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="46">
-      <c r="A62" s="4">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="7" customFormat="1" ht="15.5">
-      <c r="A63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8">
-        <v>43009</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>27</v>
+      <c r="H69" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="46">
+      <c r="A73" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="7" customFormat="1" ht="15.5">
+      <c r="A74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="8">
+        <v>43647</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
